--- a/mapping/mml_name_mapping.xlsx
+++ b/mapping/mml_name_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Elements</t>
   </si>
@@ -231,6 +231,22 @@
   </si>
   <si>
     <t>use</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coded text</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -617,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,6 +727,9 @@
       <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K5">
         <v>7</v>
       </c>
@@ -728,6 +747,9 @@
         <v>11</v>
       </c>
       <c r="F6" s="1"/>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -745,6 +767,9 @@
       <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
@@ -768,6 +793,9 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
       <c r="K8">
         <v>2</v>
       </c>
@@ -792,6 +820,9 @@
       <c r="F9" s="1"/>
       <c r="H9" t="s">
         <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -813,6 +844,9 @@
       <c r="H10" t="s">
         <v>31</v>
       </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
       <c r="M10" t="s">
         <v>51</v>
       </c>
@@ -835,6 +869,9 @@
       <c r="H11" t="s">
         <v>32</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K11">
         <v>5</v>
       </c>
@@ -860,6 +897,9 @@
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K12">
         <v>6</v>
       </c>
@@ -868,6 +908,9 @@
       <c r="H13" t="s">
         <v>33</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K13">
         <v>4</v>
       </c>
@@ -889,7 +932,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="K15" t="s">
         <v>43</v>
       </c>

--- a/mapping/mml_name_mapping.xlsx
+++ b/mapping/mml_name_mapping.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,7 +642,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -751,7 +751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>

--- a/mapping/mml_name_mapping.xlsx
+++ b/mapping/mml_name_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Elements</t>
   </si>
@@ -247,6 +247,58 @@
   </si>
   <si>
     <t>coded text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.23]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0.23]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0002]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0002]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0002]/items[at0004 and name/value='Middle name']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0002]/items[at0017]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0002]/items[at0.27]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -631,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,34 +695,36 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="9" max="9" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
+      <c r="X2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -687,17 +741,23 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s">
         <v>41</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Y3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -709,7 +769,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -724,17 +784,23 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K5">
+      <c r="W5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -747,11 +813,14 @@
         <v>11</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -764,20 +833,26 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" t="s">
         <v>59</v>
       </c>
-      <c r="K7">
+      <c r="W7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Y7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -790,20 +865,26 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" t="s">
         <v>59</v>
       </c>
-      <c r="K8">
+      <c r="W8">
         <v>2</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Y8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -818,17 +899,23 @@
         <v>18</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K9">
+      <c r="W9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -841,17 +928,23 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" t="s">
         <v>59</v>
       </c>
-      <c r="M10" t="s">
+      <c r="Y10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -866,20 +959,26 @@
         <v>18</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K11">
+      <c r="W11">
         <v>5</v>
       </c>
-      <c r="M11" t="s">
+      <c r="Y11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -894,80 +993,86 @@
         <v>18</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K12">
+      <c r="W12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H13" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="I13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K13">
+      <c r="W13">
         <v>4</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Y13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H14" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" t="s">
+      <c r="U14" t="s">
         <v>40</v>
       </c>
-      <c r="K14">
+      <c r="W14">
         <v>10</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Y14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="H15" t="s">
+    <row r="15" spans="1:25" ht="27" x14ac:dyDescent="0.15">
+      <c r="I15" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K15" t="s">
+      <c r="W15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K16" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="K17" t="s">
+    <row r="17" spans="9:23" x14ac:dyDescent="0.15">
+      <c r="W17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H18" t="s">
+    <row r="18" spans="9:23" x14ac:dyDescent="0.15">
+      <c r="I18" t="s">
         <v>48</v>
       </c>
-      <c r="K18" t="s">
+      <c r="W18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="K19" t="s">
+    <row r="19" spans="9:23" x14ac:dyDescent="0.15">
+      <c r="W19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="M20" t="s">
+    <row r="20" spans="9:23" x14ac:dyDescent="0.15">
+      <c r="N20" t="s">
         <v>57</v>
       </c>
     </row>
